--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530041.7319138506</v>
+        <v>579876.3961899023</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484461</v>
+        <v>492028.9342484451</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7824799.416470962</v>
+        <v>7837425.680007886</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>357.6568314715566</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.5513054085287</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>26.7876974747977</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -871,7 +871,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>36.93156065122546</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>150.4306421615796</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>213.9524923143557</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>79.03324120856398</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>219.5141406214749</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>308.8103339333913</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,16 +1142,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.67458772895721</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.07091114523433</v>
+        <v>85.5532963163065</v>
       </c>
     </row>
     <row r="11">
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>90.97964783088879</v>
+        <v>308.8462026865811</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.2277202765931</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088899</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>129.7139627068455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109221</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.43430199953096</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225757</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.4855017772213</v>
+        <v>33.08339867820243</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015901</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907179</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>272.3369184882374</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>120.1838601509836</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023734</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.990622819019394</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3427,10 +3427,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>161.0723471410683</v>
       </c>
       <c r="E37" t="n">
-        <v>45.61239570677222</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3439,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>101.1195220207933</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225726</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3901,10 +3901,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>124.05991163492</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.0723471410683</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855479</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1669.891467141196</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901424</v>
+        <v>1635.789398365023</v>
       </c>
       <c r="D2" t="n">
-        <v>383.9968829274108</v>
+        <v>1199.879613539468</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>766.1048686977626</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797685</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.21016275628</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2050.50877292037</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>2035.406713540084</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>2031.160993880142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397426</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064433</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.2711264523757</v>
+        <v>962.2874523635909</v>
       </c>
       <c r="C4" t="n">
-        <v>466.2711264523757</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="D4" t="n">
-        <v>466.2711264523757</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>466.2711264523757</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>289.5640724141319</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>786.4454139746556</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1245.929281155569</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>1688.188084313213</v>
       </c>
       <c r="O4" t="n">
-        <v>1566.63415311139</v>
+        <v>2107.857333538995</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512705</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1750.392590344265</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1463.437082214696</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1191.410677800988</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>1154.106071082578</v>
       </c>
       <c r="Y4" t="n">
-        <v>466.2711264523757</v>
+        <v>1154.106071082578</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>668.0368528135841</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>239.4551785508525</v>
+        <v>614.7581953941713</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>582.8888146090198</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1114.499252887282</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>709.6437982983157</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>694.5417389180304</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>690.2960192580879</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626.6345971163577</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>454.0728855995826</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>288.1948928011053</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>288.1948928011053</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1378.839033424066</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1617.35187330409</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1371.472426882545</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1371.472426882545</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1371.472426882545</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1099.446022468837</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>854.0542678022493</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.6345971163577</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1368.425963492738</v>
+        <v>2064.697426772026</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506059</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890105</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851284</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114307</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105271</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105271</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105271</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105271</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.132025509624</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1382.132025509624</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1837.18472680872</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.78172237708</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996794</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.725533977646</v>
+        <v>2086.95659321653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851828</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.7304425298171</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>688.7304425298171</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>688.7304425298171</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805544</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943383</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622993</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261396</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1271.372658261396</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.40399806131</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631014</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.299505209469</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.866504462575</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1005.910996333005</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1005.910996333005</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>760.5192416664174</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>688.7304425298171</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,34 +5045,34 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429649</v>
+        <v>4493.924657556611</v>
       </c>
       <c r="V11" t="n">
         <v>4181.958796257035</v>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847292</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>516.962436093937</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172004</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397514</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>531.9906641340331</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503956</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940403</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510709</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055757</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928795</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245812</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5473,13 +5473,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245547</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111513</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K17" t="n">
-        <v>498.7803825855928</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L17" t="n">
-        <v>1573.840348838452</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2730.888184049003</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>3856.61916748545</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>4836.798834055757</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055757</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055757</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4764.64297345017</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.575746323208</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257034</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247378</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,10 +5586,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
         <v>447.3579748077851</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580466</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5701,22 +5701,22 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
         <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829512</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397514</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5762,40 +5762,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693459</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263765</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097161</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239594</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T20" t="n">
-        <v>4544.575746323208</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,10 +5823,10 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415727</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
         <v>447.3579748077851</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.4711828007308</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839558</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854785</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362157</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979719</v>
+        <v>262.3272516552874</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907406</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285906</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.70947220561</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519718</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1760.278837850371</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1488.252433436663</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1242.860678770076</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1015.441008084184</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2597.522611637232</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2351.643165215688</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.710185817962</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>926.148474301187</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>760.2704815027097</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>590.5124777534469</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>413.8054237152031</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>248.2141487410308</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>108.3119744314053</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050032</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V34" t="n">
-        <v>2035.366634303137</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1763.340229889428</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X34" t="n">
-        <v>1517.948475222841</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1290.528804536949</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.634124109936</v>
+        <v>949.5782250957669</v>
       </c>
       <c r="C37" t="n">
-        <v>885.0724125931607</v>
+        <v>777.0165135789919</v>
       </c>
       <c r="D37" t="n">
-        <v>719.1944197946834</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2559.679081471576</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2281.246080724681</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1994.290572595111</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.264168181402</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1476.872413514815</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1249.452742828923</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,40 +7181,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7342,7 +7342,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7655,22 +7655,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957674</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789923</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E46" t="n">
         <v>444.5591692831958</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710512</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>379.7979693824682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8453,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209012288</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>403.0619593938527</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>706.6317115441711</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>661.5502973433563</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>406.1054605095734</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196806959</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>268.0111327346229</v>
+        <v>50.14457787893065</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>268.0111327346228</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566218</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>184.7831561774888</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.3810530784704</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>11.38105307847042</v>
+        <v>184.7831561774893</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>11.7490345600364</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>37.4650948639997</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>81.78272691405201</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.146865729424206</v>
       </c>
       <c r="E37" t="n">
-        <v>122.4480280049979</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.592177662726</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>40.15930123557253</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.146865729424206</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>682448.443053713</v>
+        <v>686336.1491143878</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>682448.443053713</v>
+        <v>687437.0438767798</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>683173.5649664599</v>
+        <v>687437.0438767798</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657694.2765035543</v>
+        <v>657694.2765035545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657694.2765035543</v>
+        <v>657694.2765035544</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685449.7265311105</v>
+        <v>685449.7265311106</v>
       </c>
     </row>
     <row r="12">
@@ -26314,22 +26314,22 @@
         <v>268073.6599452042</v>
       </c>
       <c r="C2" t="n">
+        <v>268073.6599452041</v>
+      </c>
+      <c r="D2" t="n">
         <v>268073.6599452042</v>
-      </c>
-      <c r="D2" t="n">
-        <v>268073.6599452043</v>
       </c>
       <c r="E2" t="n">
         <v>252761.9489858381</v>
       </c>
       <c r="F2" t="n">
+        <v>252761.9489858381</v>
+      </c>
+      <c r="G2" t="n">
         <v>252761.9489858382</v>
       </c>
-      <c r="G2" t="n">
-        <v>252761.9489858381</v>
-      </c>
       <c r="H2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26344,7 +26344,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="M2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="N2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390672</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283964</v>
+        <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784519</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104672</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228851</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932121</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="G4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="H4" t="n">
-        <v>26563.08616012787</v>
+        <v>26563.08616012788</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114974.8153121902</v>
+        <v>-150528.1160397257</v>
       </c>
       <c r="C6" t="n">
-        <v>27216.48534751969</v>
+        <v>45763.2907775198</v>
       </c>
       <c r="D6" t="n">
-        <v>21451.11203151941</v>
+        <v>63103.83515142663</v>
       </c>
       <c r="E6" t="n">
-        <v>-71119.77320396408</v>
+        <v>-9132.113216848427</v>
       </c>
       <c r="F6" t="n">
-        <v>152679.5205480628</v>
+        <v>152602.9619932659</v>
       </c>
       <c r="G6" t="n">
-        <v>152679.5205480627</v>
+        <v>152602.9619932659</v>
       </c>
       <c r="H6" t="n">
-        <v>152679.5205480627</v>
+        <v>152602.9619932659</v>
       </c>
       <c r="I6" t="n">
-        <v>139661.7590798413</v>
+        <v>139638.5347404587</v>
       </c>
       <c r="J6" t="n">
-        <v>47012.00936769077</v>
+        <v>-2604.579112314901</v>
       </c>
       <c r="K6" t="n">
-        <v>158026.474712681</v>
+        <v>144189.2418054531</v>
       </c>
       <c r="L6" t="n">
-        <v>149078.8636241708</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="M6" t="n">
-        <v>-28764.51189778623</v>
+        <v>23013.30576029482</v>
       </c>
       <c r="N6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="O6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
       <c r="P6" t="n">
-        <v>158026.4747126809</v>
+        <v>158003.2503732983</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26802,7 +26802,7 @@
         <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
         <v>1209.199708513939</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080615</v>
+        <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825284</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825286</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>64.3797433085021</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106.8856919847591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>137.1476647496329</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.0062764686962</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>281.1200448157203</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>215.484505078932</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>78.61571380641932</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>5.631333357557878</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>124.9507141550196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.5286747343859</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.0745628337985</v>
+        <v>139.5921776627263</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>379.7979693824682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>1.426309209012288</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>403.0619593938527</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>706.6317115441711</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>661.5502973433563</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>406.1054605095734</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196806959</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,10 +37236,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
